--- a/JLR.GP.Orders/src/plantilla/Plantilla_Carga.xlsx
+++ b/JLR.GP.Orders/src/plantilla/Plantilla_Carga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NelsonR\Pictures\INGINIERIA\DC\Api-DC\JLR.GP.Orders\src\plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FBF8F8B-8C6E-4A62-A1FD-2A7120666A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB7FBE9-5849-40D7-AECE-5151419F480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA9443F-A80D-411F-BBF6-07776CC601D7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Plantilla" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$J$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$K$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>NOMBRE_PRODUCTO</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>TUBO DE ALUMINIO 50mm | 2</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#####"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +344,12 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -735,712 +744,796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6A5477-D6EB-4166-8B05-DA608D2C4860}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="41" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f>_xlfn.CONCAT(A2,"-1")</f>
+        <v>018597-1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>2.6629999999999998</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>0.67999999999999994</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f t="shared" ref="B3:B22" si="0">_xlfn.CONCAT(A3,"-1")</f>
+        <v>018645-1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>25</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018709-1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="10">
         <v>92.8</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018717-1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="10">
+        <v>11.879</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018717-1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018717-1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2.83</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018717-1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018717-1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018717-1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018718-1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5.47</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018718-1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018718-1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="10">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018718-1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018719-1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="10">
-        <v>11.879</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1.7333333333333334</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="I15" s="10">
+        <v>7.6550000000000002</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018719-1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2.069</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018719-1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="10">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="I17" s="10">
+        <v>2.069</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018719-1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2.069</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018719-1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="10">
-        <v>2.83</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="I19" s="10">
+        <v>2.069</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018719-1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="I20" s="10">
+        <v>2</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018719-1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I21" s="10">
+        <v>6</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>018719-1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="10">
         <v>2</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="10">
-        <v>5.47</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="10">
-        <v>4</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="10">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="10">
-        <v>7.6550000000000002</v>
-      </c>
-      <c r="I15" s="10">
-        <v>2</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="J22" s="10"/>
+      <c r="K22" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="10">
-        <v>2.069</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="10">
-        <v>2.069</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2.069</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="10">
-        <v>2.069</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="10">
-        <v>2</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="10">
-        <v>6</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="10">
-        <v>2</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J22" xr:uid="{AA6A5477-D6EB-4166-8B05-DA608D2C4860}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
-      <sortCondition ref="B1:B22"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K22" xr:uid="{AA6A5477-D6EB-4166-8B05-DA608D2C4860}"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JLR.GP.Orders/src/plantilla/Plantilla_Carga.xlsx
+++ b/JLR.GP.Orders/src/plantilla/Plantilla_Carga.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NelsonR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NelsonR\Pictures\INGINIERIA\DC\Api-DC\JLR.GP.Orders\src\plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08CAE6E-2813-4149-9558-EC58918112A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608A8573-2989-4DB4-B61F-7E00DCEF767A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA9443F-A80D-411F-BBF6-07776CC601D7}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>COTIZACION</t>
   </si>
   <si>
-    <t>DESCRIP_COMPONENTE</t>
-  </si>
-  <si>
     <t>COD_COMPONENTE</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>5.7</t>
+  </si>
+  <si>
+    <t>COMPONENTE</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -577,96 +577,96 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
